--- a/natmiOut/OldD2/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>112.354669594394</v>
+        <v>112.432976</v>
       </c>
       <c r="H2">
-        <v>112.354669594394</v>
+        <v>224.865952</v>
       </c>
       <c r="I2">
-        <v>0.1477643192176357</v>
+        <v>0.1400030798658597</v>
       </c>
       <c r="J2">
-        <v>0.1477643192176357</v>
+        <v>0.103498459527239</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.2397564608694</v>
+        <v>64.3542805</v>
       </c>
       <c r="N2">
-        <v>64.2397564608694</v>
+        <v>128.708561</v>
       </c>
       <c r="O2">
-        <v>0.6463041687137466</v>
+        <v>0.6389470558360469</v>
       </c>
       <c r="P2">
-        <v>0.6463041687137466</v>
+        <v>0.5413393761575827</v>
       </c>
       <c r="Q2">
-        <v>7217.636611985318</v>
+        <v>7235.543274953768</v>
       </c>
       <c r="R2">
-        <v>7217.636611985318</v>
+        <v>28942.17309981507</v>
       </c>
       <c r="S2">
-        <v>0.09550069549750673</v>
+        <v>0.08945455568827003</v>
       </c>
       <c r="T2">
-        <v>0.09550069549750673</v>
+        <v>0.05602779151374638</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>112.354669594394</v>
+        <v>112.432976</v>
       </c>
       <c r="H3">
-        <v>112.354669594394</v>
+        <v>224.865952</v>
       </c>
       <c r="I3">
-        <v>0.1477643192176357</v>
+        <v>0.1400030798658597</v>
       </c>
       <c r="J3">
-        <v>0.1477643192176357</v>
+        <v>0.103498459527239</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>35.1557906678413</v>
+        <v>0.03297533333333334</v>
       </c>
       <c r="N3">
-        <v>35.1557906678413</v>
+        <v>0.098926</v>
       </c>
       <c r="O3">
-        <v>0.3536958312862533</v>
+        <v>0.0003273984571787046</v>
       </c>
       <c r="P3">
-        <v>0.3536958312862533</v>
+        <v>0.00041607596813832</v>
       </c>
       <c r="Q3">
-        <v>3949.917244814989</v>
+        <v>3.707514861258667</v>
       </c>
       <c r="R3">
-        <v>3949.917244814989</v>
+        <v>22.245089167552</v>
       </c>
       <c r="S3">
-        <v>0.05226362372012895</v>
+        <v>4.583679234834944E-05</v>
       </c>
       <c r="T3">
-        <v>0.05226362372012895</v>
+        <v>4.30632217486207E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>214.219415665252</v>
+        <v>112.432976</v>
       </c>
       <c r="H4">
-        <v>214.219415665252</v>
+        <v>224.865952</v>
       </c>
       <c r="I4">
-        <v>0.2817327150998545</v>
+        <v>0.1400030798658597</v>
       </c>
       <c r="J4">
-        <v>0.2817327150998545</v>
+        <v>0.103498459527239</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>64.2397564608694</v>
+        <v>0.03088066666666667</v>
       </c>
       <c r="N4">
-        <v>64.2397564608694</v>
+        <v>0.092642</v>
       </c>
       <c r="O4">
-        <v>0.6463041687137466</v>
+        <v>0.0003066013774937787</v>
       </c>
       <c r="P4">
-        <v>0.6463041687137466</v>
+        <v>0.0003896458953184223</v>
       </c>
       <c r="Q4">
-        <v>13761.40309152554</v>
+        <v>3.472005254197333</v>
       </c>
       <c r="R4">
-        <v>13761.40309152554</v>
+        <v>20.832031525184</v>
       </c>
       <c r="S4">
-        <v>0.1820850282320783</v>
+        <v>4.292513714024411E-05</v>
       </c>
       <c r="T4">
-        <v>0.1820850282320783</v>
+        <v>4.032774992656854E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>214.219415665252</v>
+        <v>112.432976</v>
       </c>
       <c r="H5">
-        <v>214.219415665252</v>
+        <v>224.865952</v>
       </c>
       <c r="I5">
-        <v>0.2817327150998545</v>
+        <v>0.1400030798658597</v>
       </c>
       <c r="J5">
-        <v>0.2817327150998545</v>
+        <v>0.103498459527239</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.1557906678413</v>
+        <v>36.25707166666667</v>
       </c>
       <c r="N5">
-        <v>35.1557906678413</v>
+        <v>108.771215</v>
       </c>
       <c r="O5">
-        <v>0.3536958312862533</v>
+        <v>0.3599814808690655</v>
       </c>
       <c r="P5">
-        <v>0.3536958312862533</v>
+        <v>0.4574842668934998</v>
       </c>
       <c r="Q5">
-        <v>7531.052934114883</v>
+        <v>4076.490468528613</v>
       </c>
       <c r="R5">
-        <v>7531.052934114883</v>
+        <v>24458.94281117168</v>
       </c>
       <c r="S5">
-        <v>0.0996476868677762</v>
+        <v>0.05039851601634223</v>
       </c>
       <c r="T5">
-        <v>0.0996476868677762</v>
+        <v>0.04734891688142549</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>154.731228149807</v>
+        <v>112.432976</v>
       </c>
       <c r="H6">
-        <v>154.731228149807</v>
+        <v>224.865952</v>
       </c>
       <c r="I6">
-        <v>0.2034962558459226</v>
+        <v>0.1400030798658597</v>
       </c>
       <c r="J6">
-        <v>0.2034962558459226</v>
+        <v>0.103498459527239</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>64.2397564608694</v>
+        <v>0.044061</v>
       </c>
       <c r="N6">
-        <v>64.2397564608694</v>
+        <v>0.08812200000000001</v>
       </c>
       <c r="O6">
-        <v>0.6463041687137466</v>
+        <v>0.0004374634602152387</v>
       </c>
       <c r="P6">
-        <v>0.6463041687137466</v>
+        <v>0.0003706350854606983</v>
       </c>
       <c r="Q6">
-        <v>9939.896413234823</v>
+        <v>4.953909355536</v>
       </c>
       <c r="R6">
-        <v>9939.896413234823</v>
+        <v>19.815637422144</v>
       </c>
       <c r="S6">
-        <v>0.1315204784708589</v>
+        <v>6.124623175890943E-05</v>
       </c>
       <c r="T6">
-        <v>0.1315204784708589</v>
+        <v>3.836016039192886E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>154.731228149807</v>
+        <v>226.779063</v>
       </c>
       <c r="H7">
-        <v>154.731228149807</v>
+        <v>680.337189</v>
       </c>
       <c r="I7">
-        <v>0.2034962558459226</v>
+        <v>0.2823883917214273</v>
       </c>
       <c r="J7">
-        <v>0.2034962558459226</v>
+        <v>0.3131370062667027</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.1557906678413</v>
+        <v>64.3542805</v>
       </c>
       <c r="N7">
-        <v>35.1557906678413</v>
+        <v>128.708561</v>
       </c>
       <c r="O7">
-        <v>0.3536958312862533</v>
+        <v>0.6389470558360469</v>
       </c>
       <c r="P7">
-        <v>0.3536958312862533</v>
+        <v>0.5413393761575827</v>
       </c>
       <c r="Q7">
-        <v>5439.698666612609</v>
+        <v>14594.20343182917</v>
       </c>
       <c r="R7">
-        <v>5439.698666612609</v>
+        <v>87565.22059097503</v>
       </c>
       <c r="S7">
-        <v>0.07197577737506368</v>
+        <v>0.1804312314926823</v>
       </c>
       <c r="T7">
-        <v>0.07197577737506368</v>
+        <v>0.1695133916242699</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,184 +906,184 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>78.2214345752472</v>
+        <v>226.779063</v>
       </c>
       <c r="H8">
-        <v>78.2214345752472</v>
+        <v>680.337189</v>
       </c>
       <c r="I8">
-        <v>0.1028736684462195</v>
+        <v>0.2823883917214273</v>
       </c>
       <c r="J8">
-        <v>0.1028736684462195</v>
+        <v>0.3131370062667027</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>64.2397564608694</v>
+        <v>0.03297533333333334</v>
       </c>
       <c r="N8">
-        <v>64.2397564608694</v>
+        <v>0.098926</v>
       </c>
       <c r="O8">
-        <v>0.6463041687137466</v>
+        <v>0.0003273984571787046</v>
       </c>
       <c r="P8">
-        <v>0.6463041687137466</v>
+        <v>0.00041607596813832</v>
       </c>
       <c r="Q8">
-        <v>5024.925907133709</v>
+        <v>7.478115195446</v>
       </c>
       <c r="R8">
-        <v>5024.925907133709</v>
+        <v>67.30303675901399</v>
       </c>
       <c r="S8">
-        <v>0.06648768076766751</v>
+        <v>9.245352377477098E-05</v>
       </c>
       <c r="T8">
-        <v>0.06648768076766751</v>
+        <v>0.0001302887830423535</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>78.2214345752472</v>
+        <v>226.779063</v>
       </c>
       <c r="H9">
-        <v>78.2214345752472</v>
+        <v>680.337189</v>
       </c>
       <c r="I9">
-        <v>0.1028736684462195</v>
+        <v>0.2823883917214273</v>
       </c>
       <c r="J9">
-        <v>0.1028736684462195</v>
+        <v>0.3131370062667027</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>35.1557906678413</v>
+        <v>0.03088066666666667</v>
       </c>
       <c r="N9">
-        <v>35.1557906678413</v>
+        <v>0.092642</v>
       </c>
       <c r="O9">
-        <v>0.3536958312862533</v>
+        <v>0.0003066013774937787</v>
       </c>
       <c r="P9">
-        <v>0.3536958312862533</v>
+        <v>0.0003896458953184223</v>
       </c>
       <c r="Q9">
-        <v>2749.936379665634</v>
+        <v>7.003088651482</v>
       </c>
       <c r="R9">
-        <v>2749.936379665634</v>
+        <v>63.027797863338</v>
       </c>
       <c r="S9">
-        <v>0.03638598767855203</v>
+        <v>8.658066989004239E-05</v>
       </c>
       <c r="T9">
-        <v>0.03638598767855203</v>
+        <v>0.0001220125491641198</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>78.93658412321039</v>
+        <v>226.779063</v>
       </c>
       <c r="H10">
-        <v>78.93658412321039</v>
+        <v>680.337189</v>
       </c>
       <c r="I10">
-        <v>0.1038142042199001</v>
+        <v>0.2823883917214273</v>
       </c>
       <c r="J10">
-        <v>0.1038142042199001</v>
+        <v>0.3131370062667027</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>64.2397564608694</v>
+        <v>36.25707166666667</v>
       </c>
       <c r="N10">
-        <v>64.2397564608694</v>
+        <v>108.771215</v>
       </c>
       <c r="O10">
-        <v>0.6463041687137466</v>
+        <v>0.3599814808690655</v>
       </c>
       <c r="P10">
-        <v>0.6463041687137466</v>
+        <v>0.4574842668934998</v>
       </c>
       <c r="Q10">
-        <v>5070.866939927966</v>
+        <v>8222.344739690514</v>
       </c>
       <c r="R10">
-        <v>5070.866939927966</v>
+        <v>74001.10265721464</v>
       </c>
       <c r="S10">
-        <v>0.06709555295902164</v>
+        <v>0.1016545914321132</v>
       </c>
       <c r="T10">
-        <v>0.06709555295902164</v>
+        <v>0.1432552537491477</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>78.93658412321039</v>
+        <v>226.779063</v>
       </c>
       <c r="H11">
-        <v>78.93658412321039</v>
+        <v>680.337189</v>
       </c>
       <c r="I11">
-        <v>0.1038142042199001</v>
+        <v>0.2823883917214273</v>
       </c>
       <c r="J11">
-        <v>0.1038142042199001</v>
+        <v>0.3131370062667027</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>35.1557906678413</v>
+        <v>0.044061</v>
       </c>
       <c r="N11">
-        <v>35.1557906678413</v>
+        <v>0.08812200000000001</v>
       </c>
       <c r="O11">
-        <v>0.3536958312862533</v>
+        <v>0.0004374634602152387</v>
       </c>
       <c r="P11">
-        <v>0.3536958312862533</v>
+        <v>0.0003706350854606983</v>
       </c>
       <c r="Q11">
-        <v>2775.07802747003</v>
+        <v>9.992112294843</v>
       </c>
       <c r="R11">
-        <v>2775.07802747003</v>
+        <v>59.952673769058</v>
       </c>
       <c r="S11">
-        <v>0.03671865126087842</v>
+        <v>0.0001235346029670719</v>
       </c>
       <c r="T11">
-        <v>0.03671865126087842</v>
+        <v>0.0001160595610785666</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,114 +1157,1230 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>121.90067314908</v>
+        <v>175.151614</v>
       </c>
       <c r="H12">
-        <v>121.90067314908</v>
+        <v>525.454842</v>
       </c>
       <c r="I12">
-        <v>0.1603188371704675</v>
+        <v>0.218101185932108</v>
       </c>
       <c r="J12">
-        <v>0.1603188371704675</v>
+        <v>0.241849716306223</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>64.2397564608694</v>
+        <v>64.3542805</v>
       </c>
       <c r="N12">
-        <v>64.2397564608694</v>
+        <v>128.708561</v>
       </c>
       <c r="O12">
-        <v>0.6463041687137466</v>
+        <v>0.6389470558360469</v>
       </c>
       <c r="P12">
-        <v>0.6463041687137466</v>
+        <v>0.5413393761575827</v>
       </c>
       <c r="Q12">
-        <v>7830.869555512942</v>
+        <v>11271.75609738373</v>
       </c>
       <c r="R12">
-        <v>7830.869555512942</v>
+        <v>67630.53658430236</v>
       </c>
       <c r="S12">
-        <v>0.1036147327866135</v>
+        <v>0.1393551106256707</v>
       </c>
       <c r="T12">
-        <v>0.1036147327866135</v>
+        <v>0.1309227745490991</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>175.151614</v>
+      </c>
+      <c r="H13">
+        <v>525.454842</v>
+      </c>
+      <c r="I13">
+        <v>0.218101185932108</v>
+      </c>
+      <c r="J13">
+        <v>0.241849716306223</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.098926</v>
+      </c>
+      <c r="O13">
+        <v>0.0003273984571787046</v>
+      </c>
+      <c r="P13">
+        <v>0.00041607596813832</v>
+      </c>
+      <c r="Q13">
+        <v>5.775682855521334</v>
+      </c>
+      <c r="R13">
+        <v>51.981145699692</v>
+      </c>
+      <c r="S13">
+        <v>7.140599178301796E-05</v>
+      </c>
+      <c r="T13">
+        <v>0.0001006278548560898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>175.151614</v>
+      </c>
+      <c r="H14">
+        <v>525.454842</v>
+      </c>
+      <c r="I14">
+        <v>0.218101185932108</v>
+      </c>
+      <c r="J14">
+        <v>0.241849716306223</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.092642</v>
+      </c>
+      <c r="O14">
+        <v>0.0003066013774937787</v>
+      </c>
+      <c r="P14">
+        <v>0.0003896458953184223</v>
+      </c>
+      <c r="Q14">
+        <v>5.408798608062667</v>
+      </c>
+      <c r="R14">
+        <v>48.679187472564</v>
+      </c>
+      <c r="S14">
+        <v>6.687012403981107E-05</v>
+      </c>
+      <c r="T14">
+        <v>9.423574924264471E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>175.151614</v>
+      </c>
+      <c r="H15">
+        <v>525.454842</v>
+      </c>
+      <c r="I15">
+        <v>0.218101185932108</v>
+      </c>
+      <c r="J15">
+        <v>0.241849716306223</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>36.25707166666667</v>
+      </c>
+      <c r="N15">
+        <v>108.771215</v>
+      </c>
+      <c r="O15">
+        <v>0.3599814808690655</v>
+      </c>
+      <c r="P15">
+        <v>0.4574842668934998</v>
+      </c>
+      <c r="Q15">
+        <v>6350.484621330337</v>
+      </c>
+      <c r="R15">
+        <v>57154.36159197304</v>
+      </c>
+      <c r="S15">
+        <v>0.07851238789113964</v>
+      </c>
+      <c r="T15">
+        <v>0.1106424401627533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>175.151614</v>
+      </c>
+      <c r="H16">
+        <v>525.454842</v>
+      </c>
+      <c r="I16">
+        <v>0.218101185932108</v>
+      </c>
+      <c r="J16">
+        <v>0.241849716306223</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.044061</v>
+      </c>
+      <c r="N16">
+        <v>0.08812200000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.0004374634602152387</v>
+      </c>
+      <c r="P16">
+        <v>0.0003706350854606983</v>
+      </c>
+      <c r="Q16">
+        <v>7.717355264454</v>
+      </c>
+      <c r="R16">
+        <v>46.304131586724</v>
+      </c>
+      <c r="S16">
+        <v>9.541129947490712E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.963799027180262E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>80.34609466666667</v>
+      </c>
+      <c r="H17">
+        <v>241.038284</v>
+      </c>
+      <c r="I17">
+        <v>0.1000480562617791</v>
+      </c>
+      <c r="J17">
+        <v>0.1109420561859411</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>64.3542805</v>
+      </c>
+      <c r="N17">
+        <v>128.708561</v>
+      </c>
+      <c r="O17">
+        <v>0.6389470558360469</v>
+      </c>
+      <c r="P17">
+        <v>0.5413393761575827</v>
+      </c>
+      <c r="Q17">
+        <v>5170.615113258221</v>
+      </c>
+      <c r="R17">
+        <v>31023.69067954933</v>
+      </c>
+      <c r="S17">
+        <v>0.06392541099058296</v>
+      </c>
+      <c r="T17">
+        <v>0.06005730348533686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>80.34609466666667</v>
+      </c>
+      <c r="H18">
+        <v>241.038284</v>
+      </c>
+      <c r="I18">
+        <v>0.1000480562617791</v>
+      </c>
+      <c r="J18">
+        <v>0.1109420561859411</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N18">
+        <v>0.098926</v>
+      </c>
+      <c r="O18">
+        <v>0.0003273984571787046</v>
+      </c>
+      <c r="P18">
+        <v>0.00041607596813832</v>
+      </c>
+      <c r="Q18">
+        <v>2.649439253664889</v>
+      </c>
+      <c r="R18">
+        <v>23.844953282984</v>
+      </c>
+      <c r="S18">
+        <v>3.275557926383472E-05</v>
+      </c>
+      <c r="T18">
+        <v>4.616032343482135E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>80.34609466666667</v>
+      </c>
+      <c r="H19">
+        <v>241.038284</v>
+      </c>
+      <c r="I19">
+        <v>0.1000480562617791</v>
+      </c>
+      <c r="J19">
+        <v>0.1109420561859411</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.092642</v>
+      </c>
+      <c r="O19">
+        <v>0.0003066013774937787</v>
+      </c>
+      <c r="P19">
+        <v>0.0003896458953184223</v>
+      </c>
+      <c r="Q19">
+        <v>2.481140967369778</v>
+      </c>
+      <c r="R19">
+        <v>22.330268706328</v>
+      </c>
+      <c r="S19">
+        <v>3.067487186543655E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.322811681103774E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>121.90067314908</v>
-      </c>
-      <c r="H13">
-        <v>121.90067314908</v>
-      </c>
-      <c r="I13">
-        <v>0.1603188371704675</v>
-      </c>
-      <c r="J13">
-        <v>0.1603188371704675</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>35.1557906678413</v>
-      </c>
-      <c r="N13">
-        <v>35.1557906678413</v>
-      </c>
-      <c r="O13">
-        <v>0.3536958312862533</v>
-      </c>
-      <c r="P13">
-        <v>0.3536958312862533</v>
-      </c>
-      <c r="Q13">
-        <v>4285.514547498</v>
-      </c>
-      <c r="R13">
-        <v>4285.514547498</v>
-      </c>
-      <c r="S13">
-        <v>0.056704104383854</v>
-      </c>
-      <c r="T13">
-        <v>0.056704104383854</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>80.34609466666667</v>
+      </c>
+      <c r="H20">
+        <v>241.038284</v>
+      </c>
+      <c r="I20">
+        <v>0.1000480562617791</v>
+      </c>
+      <c r="J20">
+        <v>0.1109420561859411</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>36.25707166666667</v>
+      </c>
+      <c r="N20">
+        <v>108.771215</v>
+      </c>
+      <c r="O20">
+        <v>0.3599814808690655</v>
+      </c>
+      <c r="P20">
+        <v>0.4574842668934998</v>
+      </c>
+      <c r="Q20">
+        <v>2913.114112466118</v>
+      </c>
+      <c r="R20">
+        <v>26218.02701219506</v>
+      </c>
+      <c r="S20">
+        <v>0.03601544745118683</v>
+      </c>
+      <c r="T20">
+        <v>0.05075424524188275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>80.34609466666667</v>
+      </c>
+      <c r="H21">
+        <v>241.038284</v>
+      </c>
+      <c r="I21">
+        <v>0.1000480562617791</v>
+      </c>
+      <c r="J21">
+        <v>0.1109420561859411</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.044061</v>
+      </c>
+      <c r="N21">
+        <v>0.08812200000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0004374634602152387</v>
+      </c>
+      <c r="P21">
+        <v>0.0003706350854606983</v>
+      </c>
+      <c r="Q21">
+        <v>3.540129277108</v>
+      </c>
+      <c r="R21">
+        <v>21.240775662648</v>
+      </c>
+      <c r="S21">
+        <v>4.376736888008678E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.111901847566189E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>84.22342166666667</v>
+      </c>
+      <c r="H22">
+        <v>252.670265</v>
+      </c>
+      <c r="I22">
+        <v>0.1048761568863419</v>
+      </c>
+      <c r="J22">
+        <v>0.1162958774471969</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>64.3542805</v>
+      </c>
+      <c r="N22">
+        <v>128.708561</v>
+      </c>
+      <c r="O22">
+        <v>0.6389470558360469</v>
+      </c>
+      <c r="P22">
+        <v>0.5413393761575827</v>
+      </c>
+      <c r="Q22">
+        <v>5420.137702606445</v>
+      </c>
+      <c r="R22">
+        <v>32520.82621563867</v>
+      </c>
+      <c r="S22">
+        <v>0.06701031166992753</v>
+      </c>
+      <c r="T22">
+        <v>0.06295553774696425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>84.22342166666667</v>
+      </c>
+      <c r="H23">
+        <v>252.670265</v>
+      </c>
+      <c r="I23">
+        <v>0.1048761568863419</v>
+      </c>
+      <c r="J23">
+        <v>0.1162958774471969</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N23">
+        <v>0.098926</v>
+      </c>
+      <c r="O23">
+        <v>0.0003273984571787046</v>
+      </c>
+      <c r="P23">
+        <v>0.00041607596813832</v>
+      </c>
+      <c r="Q23">
+        <v>2.777295403932222</v>
+      </c>
+      <c r="R23">
+        <v>24.99565863539</v>
+      </c>
+      <c r="S23">
+        <v>3.433629195942012E-05</v>
+      </c>
+      <c r="T23">
+        <v>4.838791979933786E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>84.22342166666667</v>
+      </c>
+      <c r="H24">
+        <v>252.670265</v>
+      </c>
+      <c r="I24">
+        <v>0.1048761568863419</v>
+      </c>
+      <c r="J24">
+        <v>0.1162958774471969</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.092642</v>
+      </c>
+      <c r="O24">
+        <v>0.0003066013774937787</v>
+      </c>
+      <c r="P24">
+        <v>0.0003896458953184223</v>
+      </c>
+      <c r="Q24">
+        <v>2.600875410014444</v>
+      </c>
+      <c r="R24">
+        <v>23.40787869013</v>
+      </c>
+      <c r="S24">
+        <v>3.215517416760608E-05</v>
+      </c>
+      <c r="T24">
+        <v>4.531421128975455E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>84.22342166666667</v>
+      </c>
+      <c r="H25">
+        <v>252.670265</v>
+      </c>
+      <c r="I25">
+        <v>0.1048761568863419</v>
+      </c>
+      <c r="J25">
+        <v>0.1162958774471969</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>36.25707166666667</v>
+      </c>
+      <c r="N25">
+        <v>108.771215</v>
+      </c>
+      <c r="O25">
+        <v>0.3599814808690655</v>
+      </c>
+      <c r="P25">
+        <v>0.4574842668934998</v>
+      </c>
+      <c r="Q25">
+        <v>3053.69463538022</v>
+      </c>
+      <c r="R25">
+        <v>27483.25171842198</v>
+      </c>
+      <c r="S25">
+        <v>0.0377534742638018</v>
+      </c>
+      <c r="T25">
+        <v>0.05320353423666716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>84.22342166666667</v>
+      </c>
+      <c r="H26">
+        <v>252.670265</v>
+      </c>
+      <c r="I26">
+        <v>0.1048761568863419</v>
+      </c>
+      <c r="J26">
+        <v>0.1162958774471969</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.044061</v>
+      </c>
+      <c r="N26">
+        <v>0.08812200000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.0004374634602152387</v>
+      </c>
+      <c r="P26">
+        <v>0.0003706350854606983</v>
+      </c>
+      <c r="Q26">
+        <v>3.710968182055</v>
+      </c>
+      <c r="R26">
+        <v>22.26580909233</v>
+      </c>
+      <c r="S26">
+        <v>4.587948648557537E-05</v>
+      </c>
+      <c r="T26">
+        <v>4.310333247636871E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>124.1418495</v>
+      </c>
+      <c r="H27">
+        <v>248.283699</v>
+      </c>
+      <c r="I27">
+        <v>0.1545831293324837</v>
+      </c>
+      <c r="J27">
+        <v>0.1142768842666972</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>64.3542805</v>
+      </c>
+      <c r="N27">
+        <v>128.708561</v>
+      </c>
+      <c r="O27">
+        <v>0.6389470558360469</v>
+      </c>
+      <c r="P27">
+        <v>0.5413393761575827</v>
+      </c>
+      <c r="Q27">
+        <v>7989.059404511784</v>
+      </c>
+      <c r="R27">
+        <v>31956.23761804714</v>
+      </c>
+      <c r="S27">
+        <v>0.09877043536891336</v>
+      </c>
+      <c r="T27">
+        <v>0.06186257723816614</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>124.1418495</v>
+      </c>
+      <c r="H28">
+        <v>248.283699</v>
+      </c>
+      <c r="I28">
+        <v>0.1545831293324837</v>
+      </c>
+      <c r="J28">
+        <v>0.1142768842666972</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.098926</v>
+      </c>
+      <c r="O28">
+        <v>0.0003273984571787046</v>
+      </c>
+      <c r="P28">
+        <v>0.00041607596813832</v>
+      </c>
+      <c r="Q28">
+        <v>4.093618867879</v>
+      </c>
+      <c r="R28">
+        <v>24.561713207274</v>
+      </c>
+      <c r="S28">
+        <v>5.061027804931133E-05</v>
+      </c>
+      <c r="T28">
+        <v>4.75478652570968E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>124.1418495</v>
+      </c>
+      <c r="H29">
+        <v>248.283699</v>
+      </c>
+      <c r="I29">
+        <v>0.1545831293324837</v>
+      </c>
+      <c r="J29">
+        <v>0.1142768842666972</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.092642</v>
+      </c>
+      <c r="O29">
+        <v>0.0003066013774937787</v>
+      </c>
+      <c r="P29">
+        <v>0.0003896458953184223</v>
+      </c>
+      <c r="Q29">
+        <v>3.833583073793</v>
+      </c>
+      <c r="R29">
+        <v>23.001498442758</v>
+      </c>
+      <c r="S29">
+        <v>4.739540039063846E-05</v>
+      </c>
+      <c r="T29">
+        <v>4.452751888429696E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>124.1418495</v>
+      </c>
+      <c r="H30">
+        <v>248.283699</v>
+      </c>
+      <c r="I30">
+        <v>0.1545831293324837</v>
+      </c>
+      <c r="J30">
+        <v>0.1142768842666972</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>36.25707166666667</v>
+      </c>
+      <c r="N30">
+        <v>108.771215</v>
+      </c>
+      <c r="O30">
+        <v>0.3599814808690655</v>
+      </c>
+      <c r="P30">
+        <v>0.4574842668934998</v>
+      </c>
+      <c r="Q30">
+        <v>4501.019934154047</v>
+      </c>
+      <c r="R30">
+        <v>27006.11960492429</v>
+      </c>
+      <c r="S30">
+        <v>0.05564706381448177</v>
+      </c>
+      <c r="T30">
+        <v>0.0522798766216233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>124.1418495</v>
+      </c>
+      <c r="H31">
+        <v>248.283699</v>
+      </c>
+      <c r="I31">
+        <v>0.1545831293324837</v>
+      </c>
+      <c r="J31">
+        <v>0.1142768842666972</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.044061</v>
+      </c>
+      <c r="N31">
+        <v>0.08812200000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.0004374634602152387</v>
+      </c>
+      <c r="P31">
+        <v>0.0003706350854606983</v>
+      </c>
+      <c r="Q31">
+        <v>5.4698140308195</v>
+      </c>
+      <c r="R31">
+        <v>21.879256123278</v>
+      </c>
+      <c r="S31">
+        <v>6.76244706486881E-05</v>
+      </c>
+      <c r="T31">
+        <v>4.235502276636965E-05</v>
       </c>
     </row>
   </sheetData>
